--- a/sampledata/sampleTransferccc123.xlsx
+++ b/sampledata/sampleTransferccc123.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
   <si>
     <t>Source Plate Barcode</t>
   </si>
@@ -48,13 +48,10 @@
     <t>384 well, plastic</t>
   </si>
   <si>
-    <t>ssdest000000141jul8</t>
-  </si>
-  <si>
-    <t>ssdest000000241jul8</t>
-  </si>
-  <si>
     <t>ccc123</t>
+  </si>
+  <si>
+    <t>ssdest000000141jul15</t>
   </si>
 </sst>
 </file>
@@ -131,8 +128,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -184,7 +183,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="35">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -201,6 +200,7 @@
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -217,6 +217,7 @@
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -549,7 +550,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -587,7 +588,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2">
         <v>2</v>
@@ -597,7 +598,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -605,7 +606,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2">
         <v>3</v>
@@ -615,7 +616,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -623,7 +624,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2">
         <v>4</v>
@@ -633,7 +634,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -641,7 +642,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>5</v>
@@ -651,7 +652,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -659,7 +660,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="4">
         <v>7</v>
@@ -667,7 +668,7 @@
       <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F6">
@@ -676,7 +677,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="4">
         <v>8</v>
@@ -684,7 +685,7 @@
       <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F7">
@@ -693,7 +694,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" s="4">
         <v>9</v>
@@ -701,7 +702,7 @@
       <c r="D8" t="s">
         <v>8</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F8">
@@ -710,7 +711,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4">
         <v>10</v>
@@ -718,7 +719,7 @@
       <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F9">

--- a/sampledata/sampleTransferccc123.xlsx
+++ b/sampledata/sampleTransferccc123.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
     <t>Source Plate Barcode</t>
   </si>
@@ -51,7 +51,10 @@
     <t>ccc123</t>
   </si>
   <si>
-    <t>ssdest000000141jul15</t>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>ssdest000000141jul16</t>
   </si>
 </sst>
 </file>
@@ -128,8 +131,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -183,7 +188,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="37">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -201,6 +206,7 @@
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -218,6 +224,7 @@
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -550,7 +557,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -590,15 +597,15 @@
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -616,7 +623,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -634,7 +641,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -652,7 +659,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -669,7 +676,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -686,7 +693,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -703,7 +710,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8">
         <v>6</v>
@@ -720,7 +727,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9">
         <v>8</v>
